--- a/GrammarChart.xlsx
+++ b/GrammarChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Syntactic-Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\97randy\Desktop\Syntactic-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35697CC-B05B-489E-AF0F-9F9C7C72DB1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5475824-46B0-4173-A928-F80E1B9715CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6280" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6285" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Grammer G = (T, N, S, R )</t>
-  </si>
-  <si>
-    <t>T = {id, (, ), {, }, [, ], ., :, ;, !, sp}</t>
   </si>
 </sst>
 </file>
@@ -387,25 +384,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36FB2E-22C3-4852-894D-E573CEE23CF7}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GrammarChart.xlsx
+++ b/GrammarChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\97randy\Desktop\Syntactic-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5475824-46B0-4173-A928-F80E1B9715CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847090F-12E7-407E-BF11-A85F874F4C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6285" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
   </bookViews>
@@ -30,16 +30,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Grammer G = (T, N, S, R )</t>
+  </si>
+  <si>
+    <t>E -&gt; TE'</t>
+  </si>
+  <si>
+    <t>T -&gt; FT'</t>
+  </si>
+  <si>
+    <t>F -&gt; ( E ) | i</t>
+  </si>
+  <si>
+    <t>E' -&gt; +TE' | -TE' | ε</t>
+  </si>
+  <si>
+    <t>T' -&gt; *FT' | /FT' | ε</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first( E ) = (, I </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">first( E' ) = +, -, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">first( T ) = ( I </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">first ( T' ) =  *, / , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">first ( F ) =  (, I </t>
+  </si>
+  <si>
+    <t>follow( E )= $, )</t>
+  </si>
+  <si>
+    <t>follow( E' ) = $, )</t>
+  </si>
+  <si>
+    <t>follow( T ) = +, -, $, )</t>
+  </si>
+  <si>
+    <t>follow( T' ) = +, -, $, )</t>
+  </si>
+  <si>
+    <t>follow( F ) = +, /, +, -, $, )</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E'</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T'</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>E' -&gt; +TE'</t>
+  </si>
+  <si>
+    <t>E' -&gt; -TE'</t>
+  </si>
+  <si>
+    <t>T-&gt;FT'</t>
+  </si>
+  <si>
+    <t>T'-&gt;*FT'</t>
+  </si>
+  <si>
+    <t>T'-&gt;/FT'</t>
+  </si>
+  <si>
+    <t>F-&gt;i</t>
+  </si>
+  <si>
+    <t>F-&gt;( E )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +187,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,23 +537,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36FB2E-22C3-4852-894D-E573CEE23CF7}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GrammarChart.xlsx
+++ b/GrammarChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\97randy\Desktop\Syntactic-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847090F-12E7-407E-BF11-A85F874F4C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74FA896-216A-49CE-88E7-8392B5C28689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6285" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
   </bookViews>
@@ -30,100 +30,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Grammer G = (T, N, S, R )</t>
   </si>
   <si>
-    <t>E -&gt; TE'</t>
-  </si>
-  <si>
-    <t>T -&gt; FT'</t>
-  </si>
-  <si>
     <t>F -&gt; ( E ) | i</t>
   </si>
   <si>
-    <t>E' -&gt; +TE' | -TE' | ε</t>
-  </si>
-  <si>
-    <t>T' -&gt; *FT' | /FT' | ε</t>
-  </si>
-  <si>
     <t xml:space="preserve">first( E ) = (, I </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">first( E' ) = +, -, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ε</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">first( T ) = ( I </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">first ( T' ) =  *, / , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">first ( F ) =  (, I </t>
   </si>
   <si>
     <t>follow( E )= $, )</t>
   </si>
   <si>
-    <t>follow( E' ) = $, )</t>
-  </si>
-  <si>
     <t>follow( T ) = +, -, $, )</t>
   </si>
   <si>
-    <t>follow( T' ) = +, -, $, )</t>
-  </si>
-  <si>
     <t>follow( F ) = +, /, +, -, $, )</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>E'</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>T'</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -154,44 +92,119 @@
     <t>ε</t>
   </si>
   <si>
-    <t>E' -&gt; +TE'</t>
-  </si>
-  <si>
-    <t>E' -&gt; -TE'</t>
-  </si>
-  <si>
-    <t>T-&gt;FT'</t>
-  </si>
-  <si>
-    <t>T'-&gt;*FT'</t>
-  </si>
-  <si>
-    <t>T'-&gt;/FT'</t>
-  </si>
-  <si>
     <t>F-&gt;i</t>
   </si>
   <si>
     <t>F-&gt;( E )</t>
+  </si>
+  <si>
+    <t>WILL BE REPLACING NONTERMINAL WITH</t>
+  </si>
+  <si>
+    <t>E = E</t>
+  </si>
+  <si>
+    <t>T = T</t>
+  </si>
+  <si>
+    <t>T = U</t>
+  </si>
+  <si>
+    <t>F = F</t>
+  </si>
+  <si>
+    <t>E -&gt; TJ</t>
+  </si>
+  <si>
+    <t>J -&gt; +TJ | -TJ | ε</t>
+  </si>
+  <si>
+    <t>first( J ) = +, -, ε</t>
+  </si>
+  <si>
+    <t>follow( J ) = $, )</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>J -&gt; +TJ</t>
+  </si>
+  <si>
+    <t>J -&gt; -TJ</t>
+  </si>
+  <si>
+    <t>J = J</t>
+  </si>
+  <si>
+    <t>T -&gt; FU</t>
+  </si>
+  <si>
+    <t>T-&gt;FU</t>
+  </si>
+  <si>
+    <t>U -&gt; *FU | /FU | ε</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first ( U ) =  *, / , ε </t>
+  </si>
+  <si>
+    <t>follow( U ) = +, -, $, )</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U-&gt;/FU</t>
+  </si>
+  <si>
+    <t>U-&gt;*FU</t>
+  </si>
+  <si>
+    <t>rules will correspond to method</t>
+  </si>
+  <si>
+    <t>1. TJ</t>
+  </si>
+  <si>
+    <t>2. +TJ</t>
+  </si>
+  <si>
+    <t>3. -TJ</t>
+  </si>
+  <si>
+    <t>4. FU</t>
+  </si>
+  <si>
+    <t>5. *FU</t>
+  </si>
+  <si>
+    <t>6. /FU</t>
+  </si>
+  <si>
+    <t>7. ( E )</t>
+  </si>
+  <si>
+    <t>8. i</t>
+  </si>
+  <si>
+    <t>-1. 'ERROR</t>
+  </si>
+  <si>
+    <t>0. Epsilon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,9 +233,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36FB2E-22C3-4852-894D-E573CEE23CF7}">
-  <dimension ref="A2:N8"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,182 +572,255 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GrammarChart.xlsx
+++ b/GrammarChart.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\97randy\Desktop\Syntactic-Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Syntactic-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74FA896-216A-49CE-88E7-8392B5C28689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98937737-E7A7-4249-8D74-3AB9D344F4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6285" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="6290" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration One" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration Two" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Grammer G = (T, N, S, R )</t>
   </si>
@@ -192,6 +193,15 @@
   </si>
   <si>
     <t>0. Epsilon</t>
+  </si>
+  <si>
+    <t>S-&gt; I = E</t>
+  </si>
+  <si>
+    <t>E -&gt; EQ</t>
+  </si>
+  <si>
+    <t>EQ -&gt; +TQ | -TQ | (epsilon)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,8 +245,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,50 +563,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36FB2E-22C3-4852-894D-E573CEE23CF7}">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -606,7 +616,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
@@ -622,7 +632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -632,7 +642,7 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
@@ -648,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -658,7 +668,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
@@ -680,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -690,7 +700,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
@@ -712,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -722,7 +732,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
@@ -750,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -758,7 +768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -766,7 +776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -774,7 +784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -782,7 +792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -790,7 +800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -798,28 +808,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -827,4 +837,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED6261-9CF2-4B4A-ADDB-6D9D0771ACC9}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GrammarChart.xlsx
+++ b/GrammarChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Syntactic-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98937737-E7A7-4249-8D74-3AB9D344F4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4FA40-F229-491F-826F-1CFCA7696C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="6290" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="6290" activeTab="1" xr2:uid="{FF0CD5BF-63FD-44B7-9E9A-0111DF168590}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration One" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>Grammer G = (T, N, S, R )</t>
   </si>
@@ -198,10 +198,127 @@
     <t>S-&gt; I = E</t>
   </si>
   <si>
-    <t>E -&gt; EQ</t>
-  </si>
-  <si>
-    <t>EQ -&gt; +TQ | -TQ | (epsilon)</t>
+    <t>T -&gt; FR</t>
+  </si>
+  <si>
+    <t>F -&gt; (E) | i</t>
+  </si>
+  <si>
+    <t>R -&gt; *FR | /FR | eps</t>
+  </si>
+  <si>
+    <t>Q -&gt; +TQ | -TQ | eps</t>
+  </si>
+  <si>
+    <t>E -&gt; TQ</t>
+  </si>
+  <si>
+    <t>first ( S ) = { I }</t>
+  </si>
+  <si>
+    <t>first ( E ) = { (, i)</t>
+  </si>
+  <si>
+    <t>first ( Q ) = {+, -, eps}</t>
+  </si>
+  <si>
+    <t>first( T ) = {(, i}</t>
+  </si>
+  <si>
+    <t>first ( R ) = {*, /, eps}</t>
+  </si>
+  <si>
+    <t>first ( F ) = {(, i}</t>
+  </si>
+  <si>
+    <t>follow(S) = {$}</t>
+  </si>
+  <si>
+    <t>follow( E ) = {$, )}</t>
+  </si>
+  <si>
+    <t>follow(Q) = {$, )}</t>
+  </si>
+  <si>
+    <t>follow(T) = {+,-,$,)}</t>
+  </si>
+  <si>
+    <t>follow( R ) = {+,-,$,)}</t>
+  </si>
+  <si>
+    <t>follow( F ) = {*, /, +, -, $, )}</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>"="</t>
+  </si>
+  <si>
+    <t>E-&gt; TQ</t>
+  </si>
+  <si>
+    <t>T-&gt;FR</t>
+  </si>
+  <si>
+    <t>E-&gt;TQ</t>
+  </si>
+  <si>
+    <t>Q-&gt;+TQ</t>
+  </si>
+  <si>
+    <t>Q-&gt;-TQ</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>R-&gt;*FR</t>
+  </si>
+  <si>
+    <t>R-&gt;/FR</t>
+  </si>
+  <si>
+    <t>rules:</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Esp</t>
+  </si>
+  <si>
+    <t>I = E</t>
+  </si>
+  <si>
+    <t>"+TQ"</t>
+  </si>
+  <si>
+    <t>"-TQ"</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>"*FR"</t>
+  </si>
+  <si>
+    <t>"/FR"</t>
+  </si>
+  <si>
+    <t>( E )</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>TQ</t>
   </si>
 </sst>
 </file>
@@ -217,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,10 +366,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36FB2E-22C3-4852-894D-E573CEE23CF7}">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,35 +965,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED6261-9CF2-4B4A-ADDB-6D9D0771ACC9}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
